--- a/data/trans_orig/P41D_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Clase-trans_orig.xlsx
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4066</v>
+        <v>4149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4421364124146375</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.867248213310682</v>
+        <v>0.8849252729415261</v>
       </c>
     </row>
     <row r="5">
@@ -838,7 +838,7 @@
         <v>2615</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>622</v>
+        <v>539</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>4688</v>
@@ -847,7 +847,7 @@
         <v>0.5578635875853625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1327517866893181</v>
+        <v>0.1150747270584699</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>3558</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3547286079083247</v>
+        <v>0.3547286079083248</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5108</v>
+        <v>4383</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.355052949712199</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8920017560993561</v>
+        <v>0.7652889988019531</v>
       </c>
     </row>
     <row r="14">
@@ -1317,7 +1317,7 @@
         <v>3558</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6452713920916752</v>
+        <v>0.6452713920916753</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>3694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>612</v>
+        <v>1344</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>5727</v>
@@ -1362,7 +1362,7 @@
         <v>0.644947050287801</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1068303820069354</v>
+        <v>0.2346899148795434</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5891</v>
+        <v>6230</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.106121279040507</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4952385906464142</v>
+        <v>0.5237901538278658</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1647,19 +1647,19 @@
         <v>2844</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6151</v>
+        <v>6201</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2747520361685414</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07542542318702654</v>
+        <v>0.07467978337336831</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5942719239666082</v>
+        <v>0.5991653248417775</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1668,19 +1668,19 @@
         <v>4106</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>955</v>
+        <v>1088</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8935</v>
+        <v>8821</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1845817299321655</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04293123732389456</v>
+        <v>0.04893301383332394</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4016693096969433</v>
+        <v>0.3965437468669682</v>
       </c>
     </row>
     <row r="20">
@@ -1697,7 +1697,7 @@
         <v>10633</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6004</v>
+        <v>5665</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>11895</v>
@@ -1706,7 +1706,7 @@
         <v>0.8938787209594931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5047614093535852</v>
+        <v>0.4762098461721322</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1718,19 +1718,19 @@
         <v>7506</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4199</v>
+        <v>4149</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9569</v>
+        <v>9577</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7252479638314585</v>
+        <v>0.7252479638314587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4057280760333918</v>
+        <v>0.4008346751582221</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9245745768129735</v>
+        <v>0.9253202166266318</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1739,19 +1739,19 @@
         <v>18138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13309</v>
+        <v>13423</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21289</v>
+        <v>21156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8154182700678344</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5983306903030567</v>
+        <v>0.6034562531330321</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9570687626761053</v>
+        <v>0.951066986166676</v>
       </c>
     </row>
     <row r="21">
